--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -879,7 +879,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSSospechaPatologiaGes</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSProblemaGES</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1685,7 +1685,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.66796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.27734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -821,7 +821,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>sospechaGes</t>
+    <t>ProblemaGes</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>90</v>

--- a/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ConditionIniciarGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
